--- a/biology/Biochimie/Fritz_Albert_Lipmann/Fritz_Albert_Lipmann.xlsx
+++ b/biology/Biochimie/Fritz_Albert_Lipmann/Fritz_Albert_Lipmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Fritz Albert Lipmann, né le 12 juin 1899 à Königsberg (Empire allemand) et mort le 24 juillet 1986 à Poughkeepsie (États-Unis), est un biochimiste germano-américain.
-Découvreur du coenzyme A, il a reçu le prix Nobel de physiologie ou médecine de 1953 en même temps que Hans Adolf Krebs[1].
+Découvreur du coenzyme A, il a reçu le prix Nobel de physiologie ou médecine de 1953 en même temps que Hans Adolf Krebs.
 </t>
         </is>
       </c>
@@ -513,15 +525,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né en 1899 à Koenigsberg en Allemagne (aujourd'hui Kaliningrad en Russie), Fritz Albert Lipmann est le fils de Leopold Lipmann, avocat, et de Gertrud Lachmanski[2].
-Entre 1917 et 1922, il étudie dans les universités de Koenigsberg, Berlin et Munich et obtient son diplôme de médecine en 1924 à Berlin. Il opte alors pour une carrière de biochimiste et fait un stage en pharmacologie à l'université d'Amsterdam avant de retourner à Koenigsberg pour continuer des études de chimie avec le Professeur Hans Meerwein. Il devient par la suite l'élève d'Otto Meyerhof à l'institut de biologie Kaiser Wilhelm à Berlin puis Heidelberg, de 1926 à 1930[2],[3]. 
-Il épouse Elfreda M. Hall en 1931 et ont un enfant, Steven[2].
-En 1933 à l'arrivée des nazis au pouvoir, du fait de ses origines juives, il doit abandonner son travail et quitter l'Allemagne avec sa famille[3].
-Il mène alors son activité scientifique à la fondation Carlsberg à Copenhague, puis à l'université Cornell à New York, puis à l'hôpital général du Massachusetts entre 1939 et 1941, avant de devenir professeur de chimie biologique à la Havard Medical School à Boston, puis à l'institut Rockefeller de New York en 1957[3].
-En 1953, il est lauréat du prix Nobel de physiologie ou médecine (avec son compatriote Hans Adolf Krebs) « pour sa découverte du coenzyme A et de son importance dans le métabolisme intermédiaire[1] ».
-Il décède le 24 juillet 1986 à Poughkeepsie, New York[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né en 1899 à Koenigsberg en Allemagne (aujourd'hui Kaliningrad en Russie), Fritz Albert Lipmann est le fils de Leopold Lipmann, avocat, et de Gertrud Lachmanski.
+Entre 1917 et 1922, il étudie dans les universités de Koenigsberg, Berlin et Munich et obtient son diplôme de médecine en 1924 à Berlin. Il opte alors pour une carrière de biochimiste et fait un stage en pharmacologie à l'université d'Amsterdam avant de retourner à Koenigsberg pour continuer des études de chimie avec le Professeur Hans Meerwein. Il devient par la suite l'élève d'Otto Meyerhof à l'institut de biologie Kaiser Wilhelm à Berlin puis Heidelberg, de 1926 à 1930,. 
+Il épouse Elfreda M. Hall en 1931 et ont un enfant, Steven.
+En 1933 à l'arrivée des nazis au pouvoir, du fait de ses origines juives, il doit abandonner son travail et quitter l'Allemagne avec sa famille.
+Il mène alors son activité scientifique à la fondation Carlsberg à Copenhague, puis à l'université Cornell à New York, puis à l'hôpital général du Massachusetts entre 1939 et 1941, avant de devenir professeur de chimie biologique à la Havard Medical School à Boston, puis à l'institut Rockefeller de New York en 1957.
+En 1953, il est lauréat du prix Nobel de physiologie ou médecine (avec son compatriote Hans Adolf Krebs) « pour sa découverte du coenzyme A et de son importance dans le métabolisme intermédiaire ».
+Il décède le 24 juillet 1986 à Poughkeepsie, New York.
 </t>
         </is>
       </c>
